--- a/tests/test_xls/sheet_txns/test_select/test_select_memo/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns/test_select/test_select_memo/expected_result.xlsx
@@ -441,7 +441,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
@@ -537,36 +537,40 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>43107</v>
+        <v>43460</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Savings</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Walgreens</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Interest Income</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Pharmacy</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" s="3" t="n">
-        <v>2855.33</v>
+        <v>-359.77</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Expense</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -588,7 +592,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" s="2" t="n">
-        <v>43261</v>
+        <v>43471</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -597,18 +601,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" s="3" t="n">
-        <v>-355.03</v>
+        <v>-430.68</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -639,27 +647,31 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" s="2" t="n">
-        <v>43278</v>
+        <v>43569</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The Vet</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pets</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Farmer's Market</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" s="3" t="n">
-        <v>-684.53</v>
+        <v>-417.02</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -668,7 +680,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -690,36 +702,40 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" s="2" t="n">
-        <v>43485</v>
+        <v>43726</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Savings</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Kroger</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Interest Income</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Grocery Store</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" s="3" t="n">
-        <v>269.7</v>
+        <v>-423.43</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Expense</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Essential</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -741,16 +757,16 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" s="2" t="n">
-        <v>43933</v>
+        <v>43987</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kroger</t>
+          <t>Neighborhood Market</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -760,12 +776,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Grocery Store</t>
+          <t>Farmer's Market</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" s="3" t="n">
-        <v>-25.93</v>
+        <v>-157</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -796,40 +812,36 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" s="2" t="n">
-        <v>44037</v>
+        <v>44094</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>Savings</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>United States Treasury</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Federal Taxes</t>
-        </is>
-      </c>
+          <t>Interest Income</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" s="3" t="n">
-        <v>-311.12</v>
+        <v>3608.63</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Expense</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -851,36 +863,36 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" s="2" t="n">
-        <v>44185</v>
+        <v>44223</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Savings</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Interest Income</t>
+          <t>Dining Out</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" s="3" t="n">
-        <v>3467.19</v>
+        <v>-159.67</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Expense</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -892,7 +904,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era A</t>
         </is>
       </c>
     </row>
@@ -902,40 +914,36 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" s="2" t="n">
-        <v>44187</v>
+        <v>44226</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mastercard</t>
+          <t>Savings</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Household</t>
-        </is>
-      </c>
+          <t>Interest Income</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" s="3" t="n">
-        <v>-368.04</v>
+        <v>3849.4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Expense</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -947,7 +955,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Era B</t>
+          <t>Era A</t>
         </is>
       </c>
     </row>
@@ -957,31 +965,27 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" s="2" t="n">
-        <v>44272</v>
+        <v>44517</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Mastercard</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>The Vet</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pharmacy</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>OTC</t>
-        </is>
-      </c>
+          <t>Pets</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" s="3" t="n">
-        <v>-615.01</v>
+        <v>-16.17</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1012,7 +1016,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" s="2" t="n">
-        <v>44538</v>
+        <v>44799</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1021,18 +1025,18 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Local Utility Co</t>
+          <t>Highland Apartments</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" s="3" t="n">
-        <v>-704.41</v>
+        <v>-363.44</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1041,7 +1045,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>Discretionary</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1063,40 +1067,36 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" s="2" t="n">
-        <v>44607</v>
+        <v>44879</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>Savings</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>City of San Francisco</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Taxes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Local Taxes</t>
-        </is>
-      </c>
+          <t>Interest Income</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" s="3" t="n">
-        <v>-200.72</v>
+        <v>1949.29</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Expense</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Discretionary</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
